--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>silhouette</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Iteration name</t>
   </si>
   <si>
-    <t>tamere</t>
-  </si>
-  <si>
-    <t>stppp</t>
-  </si>
-  <si>
-    <t>trrr</t>
+    <t>kmeans 1</t>
+  </si>
+  <si>
+    <t>dbscan 1</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.4546614108580692</v>
+        <v>0.4618231593530843</v>
       </c>
       <c r="C2">
-        <v>0.3630617322335979</v>
+        <v>921165.0807396912</v>
       </c>
       <c r="D2">
-        <v>7.031098165599168</v>
+        <v>0.8172181159728882</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,27 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4618231593530843</v>
+        <v>-0.4546614108580692</v>
       </c>
       <c r="C3">
-        <v>921165.0807396912</v>
+        <v>0.3630617322335979</v>
       </c>
       <c r="D3">
-        <v>0.8172181159728882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.4618231593530843</v>
-      </c>
-      <c r="C4">
-        <v>921165.0807396912</v>
-      </c>
-      <c r="D4">
-        <v>0.8172181159728882</v>
+        <v>7.031098165599168</v>
       </c>
     </row>
   </sheetData>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>silhouette</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>dbscan 1</t>
+  </si>
+  <si>
+    <t>kmeans_tuning_1</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,6 +443,20 @@
         <v>7.031098165599168</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.5050436415844799</v>
+      </c>
+      <c r="C4">
+        <v>714477.0893068067</v>
+      </c>
+      <c r="D4">
+        <v>0.4315535954435768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>silhouette</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>kmeans_tuning_1</t>
+  </si>
+  <si>
+    <t>spectral_1</t>
+  </si>
+  <si>
+    <t>hierarchical_1</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,6 +463,34 @@
         <v>0.4315535954435768</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-0.3862637995641255</v>
+      </c>
+      <c r="C5">
+        <v>0.4725908679043076</v>
+      </c>
+      <c r="D5">
+        <v>4.155297896218482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9939182672879472</v>
+      </c>
+      <c r="C6">
+        <v>36211.61359472208</v>
+      </c>
+      <c r="D6">
+        <v>0.2206786182786379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>silhouette</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>hierarchical_1</t>
+  </si>
+  <si>
+    <t>kmeans_2</t>
+  </si>
+  <si>
+    <t>dbscan_2</t>
+  </si>
+  <si>
+    <t>kmeans_tuning_2</t>
+  </si>
+  <si>
+    <t>spectral_2</t>
+  </si>
+  <si>
+    <t>hierarchical_2</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,6 +506,76 @@
         <v>0.2206786182786379</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.09832546947049277</v>
+      </c>
+      <c r="C7">
+        <v>216.1940763935886</v>
+      </c>
+      <c r="D7">
+        <v>2.122266764507851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-0.1868101094925505</v>
+      </c>
+      <c r="C8">
+        <v>40.57101148583025</v>
+      </c>
+      <c r="D8">
+        <v>1.4565383983669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.1017293603030071</v>
+      </c>
+      <c r="C9">
+        <v>512.8691589203349</v>
+      </c>
+      <c r="D9">
+        <v>2.220141330403374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.09127671234977655</v>
+      </c>
+      <c r="C10">
+        <v>1485.014537187663</v>
+      </c>
+      <c r="D10">
+        <v>2.102322220643909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.1375684102433612</v>
+      </c>
+      <c r="C11">
+        <v>1346.874348332951</v>
+      </c>
+      <c r="D11">
+        <v>2.611992143675847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>silhouette</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>hierarchical_2</t>
+  </si>
+  <si>
+    <t>kmeans_3</t>
+  </si>
+  <si>
+    <t>dbscan_3</t>
+  </si>
+  <si>
+    <t>kmeans_tuning_3</t>
+  </si>
+  <si>
+    <t>spectral_3</t>
+  </si>
+  <si>
+    <t>hierarchical_3</t>
+  </si>
+  <si>
+    <t>kmeans_4</t>
+  </si>
+  <si>
+    <t>dbscan_4</t>
+  </si>
+  <si>
+    <t>kmeans_tuning_4</t>
   </si>
 </sst>
 </file>
@@ -413,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.09832546947049277</v>
+        <v>0.2658440897522831</v>
       </c>
       <c r="C7">
-        <v>216.1940763935886</v>
+        <v>841.404019856604</v>
       </c>
       <c r="D7">
-        <v>2.122266764507851</v>
+        <v>1.31400810551839</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.1868101094925505</v>
+        <v>0.3967950427098683</v>
       </c>
       <c r="C8">
-        <v>40.57101148583025</v>
+        <v>45.69044497974205</v>
       </c>
       <c r="D8">
-        <v>1.4565383983669</v>
+        <v>2.646959581560611</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1017293603030071</v>
+        <v>0.2971378578080854</v>
       </c>
       <c r="C9">
-        <v>512.8691589203349</v>
+        <v>560.9036988100663</v>
       </c>
       <c r="D9">
-        <v>2.220141330403374</v>
+        <v>1.331255271266923</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.09127671234977655</v>
+        <v>-0.06457602202272739</v>
       </c>
       <c r="C10">
-        <v>1485.014537187663</v>
+        <v>57.86726983408416</v>
       </c>
       <c r="D10">
-        <v>2.102322220643909</v>
+        <v>1.513972355815162</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,13 +591,167 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1375684102433612</v>
+        <v>0.3005099973393388</v>
       </c>
       <c r="C11">
-        <v>1346.874348332951</v>
+        <v>2409.950302889553</v>
       </c>
       <c r="D11">
-        <v>2.611992143675847</v>
+        <v>1.274199940797499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.02801442137718769</v>
+      </c>
+      <c r="C12">
+        <v>86.58675858073042</v>
+      </c>
+      <c r="D12">
+        <v>3.135866134805406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-0.2089441623898384</v>
+      </c>
+      <c r="C13">
+        <v>2.597910884129576</v>
+      </c>
+      <c r="D13">
+        <v>1.581377195642401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.0462337549972941</v>
+      </c>
+      <c r="C14">
+        <v>47.43348144792952</v>
+      </c>
+      <c r="D14">
+        <v>2.813882334058639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.03180623498643868</v>
+      </c>
+      <c r="C15">
+        <v>87.40470116573916</v>
+      </c>
+      <c r="D15">
+        <v>3.211968972675291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-0.2089441623898384</v>
+      </c>
+      <c r="C16">
+        <v>2.597910884129576</v>
+      </c>
+      <c r="D16">
+        <v>1.581377195642401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.04841249831031008</v>
+      </c>
+      <c r="C17">
+        <v>47.6366558594565</v>
+      </c>
+      <c r="D17">
+        <v>2.836850337404666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.16006708972856</v>
+      </c>
+      <c r="C18">
+        <v>287.2516326729658</v>
+      </c>
+      <c r="D18">
+        <v>2.310656442906967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.1237818225555088</v>
+      </c>
+      <c r="C19">
+        <v>881.3419021979851</v>
+      </c>
+      <c r="D19">
+        <v>3.083026227566687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.003648478302147864</v>
+      </c>
+      <c r="C20">
+        <v>618.1612679072641</v>
+      </c>
+      <c r="D20">
+        <v>3.669375547441329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-0.2553886045896989</v>
+      </c>
+      <c r="C21">
+        <v>3.699905935991716</v>
+      </c>
+      <c r="D21">
+        <v>1.453339991692746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.02398556646751706</v>
+      </c>
+      <c r="C22">
+        <v>323.2649784960254</v>
+      </c>
+      <c r="D22">
+        <v>3.516022348779729</v>
       </c>
     </row>
   </sheetData>
